--- a/output/q_cirurgia.xlsx
+++ b/output/q_cirurgia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,27 @@
     <t>OOS c/ placa</t>
   </si>
   <si>
+    <t>Libertação</t>
+  </si>
+  <si>
+    <t>Calectomia óssea e osteotomia</t>
+  </si>
+  <si>
+    <t>Calectomia e osteotomia</t>
+  </si>
+  <si>
+    <t>Colocação de Tenckoff</t>
+  </si>
+  <si>
+    <t>Catéter tenkhoff</t>
+  </si>
+  <si>
+    <t>Herniorrafia</t>
+  </si>
+  <si>
+    <t>Exerese</t>
+  </si>
+  <si>
     <t>Retalho peroneal para a face</t>
   </si>
   <si>
@@ -246,6 +267,9 @@
   </si>
   <si>
     <t>Obstetrícia</t>
+  </si>
+  <si>
+    <t>Cirurgia de Ambulatório</t>
   </si>
   <si>
     <t>ortopedia_femur_proximal</t>
@@ -339,16 +363,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -359,16 +383,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -379,13 +403,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
@@ -399,13 +423,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
@@ -419,16 +443,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -442,13 +466,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -462,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
@@ -482,10 +506,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
@@ -502,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F10" t="e">
         <v>#N/A</v>
@@ -522,10 +546,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
@@ -539,16 +563,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -562,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
@@ -582,10 +606,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F14" t="e">
         <v>#N/A</v>
@@ -599,16 +623,16 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -622,10 +646,10 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F16" t="e">
         <v>#N/A</v>
@@ -642,10 +666,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F17" t="e">
         <v>#N/A</v>
@@ -662,10 +686,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F18" t="e">
         <v>#N/A</v>
@@ -682,10 +706,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
@@ -702,10 +726,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
@@ -722,10 +746,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
@@ -742,10 +766,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
@@ -759,16 +783,16 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -782,10 +806,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
@@ -802,10 +826,10 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
@@ -822,10 +846,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
@@ -842,10 +866,10 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
@@ -862,10 +886,10 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
@@ -882,10 +906,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
@@ -902,10 +926,10 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
@@ -922,10 +946,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
@@ -942,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
@@ -962,10 +986,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -982,10 +1006,10 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
@@ -1002,10 +1026,10 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
@@ -1022,10 +1046,10 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
@@ -1042,10 +1066,10 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
@@ -1062,10 +1086,10 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
@@ -1079,16 +1103,16 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -1099,16 +1123,16 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -1122,10 +1146,10 @@
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
@@ -1142,10 +1166,10 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
@@ -1162,10 +1186,10 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
@@ -1182,10 +1206,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
@@ -1202,10 +1226,10 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
@@ -1222,10 +1246,10 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
@@ -1239,16 +1263,16 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
@@ -1262,10 +1286,10 @@
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
@@ -1282,10 +1306,10 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
@@ -1302,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
@@ -1322,10 +1346,10 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
@@ -1342,10 +1366,10 @@
         <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
@@ -1362,10 +1386,10 @@
         <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
@@ -1382,10 +1406,10 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
@@ -1402,10 +1426,10 @@
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
@@ -1419,16 +1443,16 @@
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
@@ -1439,16 +1463,16 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -1456,16 +1480,16 @@
         <v>46.0</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F58" t="e">
         <v>#N/A</v>
@@ -1476,16 +1500,16 @@
         <v>47.0</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F59" t="e">
         <v>#N/A</v>
@@ -1496,16 +1520,16 @@
         <v>48.0</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F60" t="e">
         <v>#N/A</v>
@@ -1513,19 +1537,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F61" t="e">
         <v>#N/A</v>
@@ -1533,162 +1557,162 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70">
@@ -1696,19 +1720,19 @@
         <v>57.0</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71">
@@ -1716,19 +1740,19 @@
         <v>58.0</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -1736,19 +1760,19 @@
         <v>59.0</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -1756,19 +1780,19 @@
         <v>60.0</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
@@ -1776,19 +1800,19 @@
         <v>61.0</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" t="e">
-        <v>#N/A</v>
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="75">
@@ -1796,19 +1820,19 @@
         <v>62.0</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" t="e">
-        <v>#N/A</v>
+        <v>84</v>
+      </c>
+      <c r="F75" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76">
@@ -1816,18 +1840,198 @@
         <v>63.0</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" t="s">
         <v>68</v>
       </c>
-      <c r="E76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" t="e">
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/output/q_cirurgia.xlsx
+++ b/output/q_cirurgia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +180,33 @@
   </si>
   <si>
     <t>Exerese</t>
+  </si>
+  <si>
+    <t>Excisão cartilagem articular</t>
+  </si>
+  <si>
+    <t>Stripping de varizes</t>
+  </si>
+  <si>
+    <t>Stripping</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>Retirada de sling</t>
+  </si>
+  <si>
+    <t>TVT-O</t>
+  </si>
+  <si>
+    <t>Colocação de catéter tenckoff</t>
+  </si>
+  <si>
+    <t>Laqueação</t>
+  </si>
+  <si>
+    <t>Hemorroidectomia</t>
   </si>
   <si>
     <t>Retalho peroneal para a face</t>
@@ -363,16 +390,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -383,16 +410,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -403,13 +430,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
@@ -423,13 +450,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
@@ -443,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +493,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -486,10 +513,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
@@ -506,10 +533,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
@@ -526,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F10" t="e">
         <v>#N/A</v>
@@ -546,10 +573,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
@@ -563,16 +590,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -586,10 +613,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
@@ -606,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F14" t="e">
         <v>#N/A</v>
@@ -623,16 +650,16 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -646,10 +673,10 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F16" t="e">
         <v>#N/A</v>
@@ -666,10 +693,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F17" t="e">
         <v>#N/A</v>
@@ -686,10 +713,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F18" t="e">
         <v>#N/A</v>
@@ -706,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
@@ -726,10 +753,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
@@ -746,10 +773,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
@@ -766,10 +793,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
@@ -783,16 +810,16 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -806,10 +833,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
@@ -826,10 +853,10 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
@@ -846,10 +873,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
@@ -866,10 +893,10 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
@@ -886,10 +913,10 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
@@ -906,10 +933,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
@@ -926,10 +953,10 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
@@ -946,10 +973,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
@@ -966,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
@@ -986,10 +1013,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -1006,10 +1033,10 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
@@ -1026,10 +1053,10 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
@@ -1046,10 +1073,10 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
@@ -1066,10 +1093,10 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
@@ -1086,10 +1113,10 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
@@ -1103,16 +1130,16 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1123,16 +1150,16 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -1146,10 +1173,10 @@
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
@@ -1166,10 +1193,10 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
@@ -1186,10 +1213,10 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
@@ -1206,10 +1233,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
@@ -1226,10 +1253,10 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
@@ -1246,10 +1273,10 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
@@ -1263,16 +1290,16 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
@@ -1286,10 +1313,10 @@
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
@@ -1306,10 +1333,10 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
@@ -1326,10 +1353,10 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
@@ -1346,10 +1373,10 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
@@ -1366,10 +1393,10 @@
         <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
@@ -1386,10 +1413,10 @@
         <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
@@ -1406,10 +1433,10 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
@@ -1426,10 +1453,10 @@
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
@@ -1443,16 +1470,16 @@
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
@@ -1463,16 +1490,16 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
@@ -1486,10 +1513,10 @@
         <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F58" t="e">
         <v>#N/A</v>
@@ -1506,10 +1533,10 @@
         <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F59" t="e">
         <v>#N/A</v>
@@ -1526,10 +1553,10 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F60" t="e">
         <v>#N/A</v>
@@ -1546,10 +1573,10 @@
         <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F61" t="e">
         <v>#N/A</v>
@@ -1566,10 +1593,10 @@
         <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F62" t="e">
         <v>#N/A</v>
@@ -1586,10 +1613,10 @@
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F63" t="e">
         <v>#N/A</v>
@@ -1606,10 +1633,10 @@
         <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F64" t="e">
         <v>#N/A</v>
@@ -1626,10 +1653,10 @@
         <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
@@ -1646,10 +1673,10 @@
         <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F66" t="e">
         <v>#N/A</v>
@@ -1660,16 +1687,16 @@
         <v>55.0</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
@@ -1680,16 +1707,16 @@
         <v>56.0</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F68" t="e">
         <v>#N/A</v>
@@ -1700,16 +1727,16 @@
         <v>57.0</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F69" t="e">
         <v>#N/A</v>
@@ -1717,19 +1744,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F70" t="e">
         <v>#N/A</v>
@@ -1737,259 +1764,259 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E72" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="F76" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="F78" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="F79" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
-      </c>
-      <c r="F80" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="F80" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F81" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="F81" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
-      </c>
-      <c r="F82" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="F82" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F83" t="e">
         <v>#N/A</v>
@@ -1997,19 +2024,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F84" t="e">
         <v>#N/A</v>
@@ -2017,21 +2044,341 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" t="s">
         <v>75</v>
       </c>
-      <c r="E85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F85" t="e">
+      <c r="D91" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>83</v>
+      </c>
+      <c r="E95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" t="s">
+        <v>89</v>
+      </c>
+      <c r="E100" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" t="e">
         <v>#N/A</v>
       </c>
     </row>
